--- a/natmiOut/OldD4/LR-pairs_lrc2p/Selplg-Selp.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Selplg-Selp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.05155970267359</v>
+        <v>2.156459</v>
       </c>
       <c r="H2">
-        <v>1.05155970267359</v>
+        <v>6.469377</v>
       </c>
       <c r="I2">
-        <v>0.007702204793678699</v>
+        <v>0.01389412936885011</v>
       </c>
       <c r="J2">
-        <v>0.007702204793678699</v>
+        <v>0.01392987523772938</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.2927159299736</v>
+        <v>30.47780866666666</v>
       </c>
       <c r="N2">
-        <v>13.2927159299736</v>
+        <v>91.433426</v>
       </c>
       <c r="O2">
-        <v>0.9775852961207312</v>
+        <v>0.9838017987059956</v>
       </c>
       <c r="P2">
-        <v>0.9775852961207312</v>
+        <v>0.9848051540204799</v>
       </c>
       <c r="Q2">
-        <v>13.97808441104753</v>
+        <v>65.72414479951132</v>
       </c>
       <c r="R2">
-        <v>13.97808441104753</v>
+        <v>591.5173031956019</v>
       </c>
       <c r="S2">
-        <v>0.007529562154010907</v>
+        <v>0.01366906946452854</v>
       </c>
       <c r="T2">
-        <v>0.007529562154010907</v>
+        <v>0.01371821292897815</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.05155970267359</v>
+        <v>2.156459</v>
       </c>
       <c r="H3">
-        <v>1.05155970267359</v>
+        <v>6.469377</v>
       </c>
       <c r="I3">
-        <v>0.007702204793678699</v>
+        <v>0.01389412936885011</v>
       </c>
       <c r="J3">
-        <v>0.007702204793678699</v>
+        <v>0.01392987523772938</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.304783932925277</v>
+        <v>0.04441233333333333</v>
       </c>
       <c r="N3">
-        <v>0.304783932925277</v>
+        <v>0.133237</v>
       </c>
       <c r="O3">
-        <v>0.02241470387926884</v>
+        <v>0.001433598258192696</v>
       </c>
       <c r="P3">
-        <v>0.02241470387926884</v>
+        <v>0.001435060349879339</v>
       </c>
       <c r="Q3">
-        <v>0.3204985018865916</v>
+        <v>0.09577337592766666</v>
       </c>
       <c r="R3">
-        <v>0.3204985018865916</v>
+        <v>0.8619603833489999</v>
       </c>
       <c r="S3">
-        <v>0.000172642639667793</v>
+        <v>1.991859966228749E-05</v>
       </c>
       <c r="T3">
-        <v>0.000172642639667793</v>
+        <v>1.999021163243146E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.59700806081059</v>
+        <v>2.156459</v>
       </c>
       <c r="H4">
-        <v>2.59700806081059</v>
+        <v>6.469377</v>
       </c>
       <c r="I4">
-        <v>0.01902192322921916</v>
+        <v>0.01389412936885011</v>
       </c>
       <c r="J4">
-        <v>0.01902192322921916</v>
+        <v>0.01392987523772938</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>13.2927159299736</v>
+        <v>0.00569</v>
       </c>
       <c r="N4">
-        <v>13.2927159299736</v>
+        <v>0.01707</v>
       </c>
       <c r="O4">
-        <v>0.9775852961207312</v>
+        <v>0.0001836691179428336</v>
       </c>
       <c r="P4">
-        <v>0.9775852961207312</v>
+        <v>0.0001838564375694463</v>
       </c>
       <c r="Q4">
-        <v>34.52129042020677</v>
+        <v>0.01227025171</v>
       </c>
       <c r="R4">
-        <v>34.52129042020677</v>
+        <v>0.11043226539</v>
       </c>
       <c r="S4">
-        <v>0.01859555245282202</v>
+        <v>2.551922485760318E-06</v>
       </c>
       <c r="T4">
-        <v>0.01859555245282202</v>
+        <v>2.561097236995767E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,57 +720,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.59700806081059</v>
+        <v>2.156459</v>
       </c>
       <c r="H5">
-        <v>2.59700806081059</v>
+        <v>6.469377</v>
       </c>
       <c r="I5">
-        <v>0.01902192322921916</v>
+        <v>0.01389412936885011</v>
       </c>
       <c r="J5">
-        <v>0.01902192322921916</v>
+        <v>0.01392987523772938</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.304783932925277</v>
+        <v>0.3570223333333333</v>
       </c>
       <c r="N5">
-        <v>0.304783932925277</v>
+        <v>1.071067</v>
       </c>
       <c r="O5">
-        <v>0.02241470387926884</v>
+        <v>0.0115244247889676</v>
       </c>
       <c r="P5">
-        <v>0.02241470387926884</v>
+        <v>0.01153617826702954</v>
       </c>
       <c r="Q5">
-        <v>0.7915263306124986</v>
+        <v>0.7699040239176667</v>
       </c>
       <c r="R5">
-        <v>0.7915263306124986</v>
+        <v>6.929136215259</v>
       </c>
       <c r="S5">
-        <v>0.0004263707763971328</v>
+        <v>0.0001601218489194989</v>
       </c>
       <c r="T5">
-        <v>0.0004263707763971328</v>
+        <v>0.0001606975239799265</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>64.39151237546589</v>
+        <v>2.156459</v>
       </c>
       <c r="H6">
-        <v>64.39151237546589</v>
+        <v>6.469377</v>
       </c>
       <c r="I6">
-        <v>0.4716390462943429</v>
+        <v>0.01389412936885011</v>
       </c>
       <c r="J6">
-        <v>0.4716390462943429</v>
+        <v>0.01392987523772938</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>13.2927159299736</v>
+        <v>0.0946895</v>
       </c>
       <c r="N6">
-        <v>13.2927159299736</v>
+        <v>0.189379</v>
       </c>
       <c r="O6">
-        <v>0.9775852961207312</v>
+        <v>0.003056509128901219</v>
       </c>
       <c r="P6">
-        <v>0.9775852961207312</v>
+        <v>0.002039750925041838</v>
       </c>
       <c r="Q6">
-        <v>855.9380823084476</v>
+        <v>0.2041940244805</v>
       </c>
       <c r="R6">
-        <v>855.9380823084476</v>
+        <v>1.225164146883</v>
       </c>
       <c r="S6">
-        <v>0.4610673967337545</v>
+        <v>4.246753325402489E-05</v>
       </c>
       <c r="T6">
-        <v>0.4610673967337545</v>
+        <v>2.841347590187589E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>64.39151237546589</v>
+        <v>3.009804666666666</v>
       </c>
       <c r="H7">
-        <v>64.39151237546589</v>
+        <v>9.029413999999999</v>
       </c>
       <c r="I7">
-        <v>0.4716390462943429</v>
+        <v>0.01939226083762105</v>
       </c>
       <c r="J7">
-        <v>0.4716390462943429</v>
+        <v>0.01944215192433629</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.304783932925277</v>
+        <v>30.47780866666666</v>
       </c>
       <c r="N7">
-        <v>0.304783932925277</v>
+        <v>91.433426</v>
       </c>
       <c r="O7">
-        <v>0.02241470387926884</v>
+        <v>0.9838017987059956</v>
       </c>
       <c r="P7">
-        <v>0.02241470387926884</v>
+        <v>0.9848051540204799</v>
       </c>
       <c r="Q7">
-        <v>19.62549838880114</v>
+        <v>91.7322507547071</v>
       </c>
       <c r="R7">
-        <v>19.62549838880114</v>
+        <v>825.5902567923639</v>
       </c>
       <c r="S7">
-        <v>0.01057164956058847</v>
+        <v>0.01907814109302742</v>
       </c>
       <c r="T7">
-        <v>0.01057164956058847</v>
+        <v>0.01914673142033557</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>67.7101474302312</v>
+        <v>3.009804666666666</v>
       </c>
       <c r="H8">
-        <v>67.7101474302312</v>
+        <v>9.029413999999999</v>
       </c>
       <c r="I8">
-        <v>0.4959465646999029</v>
+        <v>0.01939226083762105</v>
       </c>
       <c r="J8">
-        <v>0.4959465646999029</v>
+        <v>0.01944215192433629</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>13.2927159299736</v>
+        <v>0.04441233333333333</v>
       </c>
       <c r="N8">
-        <v>13.2927159299736</v>
+        <v>0.133237</v>
       </c>
       <c r="O8">
-        <v>0.9775852961207312</v>
+        <v>0.001433598258192696</v>
       </c>
       <c r="P8">
-        <v>0.9775852961207312</v>
+        <v>0.001435060349879339</v>
       </c>
       <c r="Q8">
-        <v>900.0517553666953</v>
+        <v>0.1336724481242222</v>
       </c>
       <c r="R8">
-        <v>900.0517553666953</v>
+        <v>1.203052033118</v>
       </c>
       <c r="S8">
-        <v>0.484830069312214</v>
+        <v>2.780071135923196E-05</v>
       </c>
       <c r="T8">
-        <v>0.484830069312214</v>
+        <v>2.790066134294531E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>67.7101474302312</v>
+        <v>3.009804666666666</v>
       </c>
       <c r="H9">
-        <v>67.7101474302312</v>
+        <v>9.029413999999999</v>
       </c>
       <c r="I9">
-        <v>0.4959465646999029</v>
+        <v>0.01939226083762105</v>
       </c>
       <c r="J9">
-        <v>0.4959465646999029</v>
+        <v>0.01944215192433629</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.304783932925277</v>
+        <v>0.00569</v>
       </c>
       <c r="N9">
-        <v>0.304783932925277</v>
+        <v>0.01707</v>
       </c>
       <c r="O9">
-        <v>0.02241470387926884</v>
+        <v>0.0001836691179428336</v>
       </c>
       <c r="P9">
-        <v>0.02241470387926884</v>
+        <v>0.0001838564375694463</v>
       </c>
       <c r="Q9">
-        <v>20.6369650327362</v>
+        <v>0.01712578855333333</v>
       </c>
       <c r="R9">
-        <v>20.6369650327362</v>
+        <v>0.15413209698</v>
       </c>
       <c r="S9">
-        <v>0.01111649538768897</v>
+        <v>3.561759442963212E-06</v>
       </c>
       <c r="T9">
-        <v>0.01111649538768897</v>
+        <v>3.574564791492426E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,117 +1027,1047 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.776874843963942</v>
+        <v>3.009804666666666</v>
       </c>
       <c r="H10">
-        <v>0.776874843963942</v>
+        <v>9.029413999999999</v>
       </c>
       <c r="I10">
-        <v>0.005690260982856267</v>
+        <v>0.01939226083762105</v>
       </c>
       <c r="J10">
-        <v>0.005690260982856267</v>
+        <v>0.01944215192433629</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.2927159299736</v>
+        <v>0.3570223333333333</v>
       </c>
       <c r="N10">
-        <v>13.2927159299736</v>
+        <v>1.071067</v>
       </c>
       <c r="O10">
-        <v>0.9775852961207312</v>
+        <v>0.0115244247889676</v>
       </c>
       <c r="P10">
-        <v>0.9775852961207312</v>
+        <v>0.01153617826702954</v>
       </c>
       <c r="Q10">
-        <v>10.32677661395525</v>
+        <v>1.074567484970889</v>
       </c>
       <c r="R10">
-        <v>10.32677661395525</v>
+        <v>9.671107364737999</v>
       </c>
       <c r="S10">
-        <v>0.005562715467929786</v>
+        <v>0.0002234846515112056</v>
       </c>
       <c r="T10">
-        <v>0.005562715467929786</v>
+        <v>0.0002242881304938148</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.009804666666666</v>
+      </c>
+      <c r="H11">
+        <v>9.029413999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.01939226083762105</v>
+      </c>
+      <c r="J11">
+        <v>0.01944215192433629</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.0946895</v>
+      </c>
+      <c r="N11">
+        <v>0.189379</v>
+      </c>
+      <c r="O11">
+        <v>0.003056509128901219</v>
+      </c>
+      <c r="P11">
+        <v>0.002039750925041838</v>
+      </c>
+      <c r="Q11">
+        <v>0.2849968989843333</v>
+      </c>
+      <c r="R11">
+        <v>1.709981393906</v>
+      </c>
+      <c r="S11">
+        <v>5.927262228022234E-05</v>
+      </c>
+      <c r="T11">
+        <v>3.965714737246891E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>80.649016</v>
+      </c>
+      <c r="H12">
+        <v>241.947048</v>
+      </c>
+      <c r="I12">
+        <v>0.519624004803459</v>
+      </c>
+      <c r="J12">
+        <v>0.5209608580203196</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>30.47780866666666</v>
+      </c>
+      <c r="N12">
+        <v>91.433426</v>
+      </c>
+      <c r="O12">
+        <v>0.9838017987059956</v>
+      </c>
+      <c r="P12">
+        <v>0.9848051540204799</v>
+      </c>
+      <c r="Q12">
+        <v>2458.005278802938</v>
+      </c>
+      <c r="R12">
+        <v>22122.04750922645</v>
+      </c>
+      <c r="S12">
+        <v>0.5112070305764559</v>
+      </c>
+      <c r="T12">
+        <v>0.5130449380213421</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>80.649016</v>
+      </c>
+      <c r="H13">
+        <v>241.947048</v>
+      </c>
+      <c r="I13">
+        <v>0.519624004803459</v>
+      </c>
+      <c r="J13">
+        <v>0.5209608580203196</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.04441233333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.133237</v>
+      </c>
+      <c r="O13">
+        <v>0.001433598258192696</v>
+      </c>
+      <c r="P13">
+        <v>0.001435060349879339</v>
+      </c>
+      <c r="Q13">
+        <v>3.581810981597333</v>
+      </c>
+      <c r="R13">
+        <v>32.236298834376</v>
+      </c>
+      <c r="S13">
+        <v>0.0007449320682013518</v>
+      </c>
+      <c r="T13">
+        <v>0.0007476102711840805</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>80.649016</v>
+      </c>
+      <c r="H14">
+        <v>241.947048</v>
+      </c>
+      <c r="I14">
+        <v>0.519624004803459</v>
+      </c>
+      <c r="J14">
+        <v>0.5209608580203196</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.00569</v>
+      </c>
+      <c r="N14">
+        <v>0.01707</v>
+      </c>
+      <c r="O14">
+        <v>0.0001836691179428336</v>
+      </c>
+      <c r="P14">
+        <v>0.0001838564375694463</v>
+      </c>
+      <c r="Q14">
+        <v>0.45889290104</v>
+      </c>
+      <c r="R14">
+        <v>4.13003610936</v>
+      </c>
+      <c r="S14">
+        <v>9.543888262417403E-05</v>
+      </c>
+      <c r="T14">
+        <v>9.578200746873807E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.776874843963942</v>
-      </c>
-      <c r="H11">
-        <v>0.776874843963942</v>
-      </c>
-      <c r="I11">
-        <v>0.005690260982856267</v>
-      </c>
-      <c r="J11">
-        <v>0.005690260982856267</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.304783932925277</v>
-      </c>
-      <c r="N11">
-        <v>0.304783932925277</v>
-      </c>
-      <c r="O11">
-        <v>0.02241470387926884</v>
-      </c>
-      <c r="P11">
-        <v>0.02241470387926884</v>
-      </c>
-      <c r="Q11">
-        <v>0.2367789703340411</v>
-      </c>
-      <c r="R11">
-        <v>0.2367789703340411</v>
-      </c>
-      <c r="S11">
-        <v>0.0001275455149264805</v>
-      </c>
-      <c r="T11">
-        <v>0.0001275455149264805</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>80.649016</v>
+      </c>
+      <c r="H15">
+        <v>241.947048</v>
+      </c>
+      <c r="I15">
+        <v>0.519624004803459</v>
+      </c>
+      <c r="J15">
+        <v>0.5209608580203196</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.3570223333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.071067</v>
+      </c>
+      <c r="O15">
+        <v>0.0115244247889676</v>
+      </c>
+      <c r="P15">
+        <v>0.01153617826702954</v>
+      </c>
+      <c r="Q15">
+        <v>28.79349987335733</v>
+      </c>
+      <c r="R15">
+        <v>259.141498860216</v>
+      </c>
+      <c r="S15">
+        <v>0.005988367761899603</v>
+      </c>
+      <c r="T15">
+        <v>0.006009897328267071</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>80.649016</v>
+      </c>
+      <c r="H16">
+        <v>241.947048</v>
+      </c>
+      <c r="I16">
+        <v>0.519624004803459</v>
+      </c>
+      <c r="J16">
+        <v>0.5209608580203196</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.0946895</v>
+      </c>
+      <c r="N16">
+        <v>0.189379</v>
+      </c>
+      <c r="O16">
+        <v>0.003056509128901219</v>
+      </c>
+      <c r="P16">
+        <v>0.002039750925041838</v>
+      </c>
+      <c r="Q16">
+        <v>7.636615000532</v>
+      </c>
+      <c r="R16">
+        <v>45.81969000319199</v>
+      </c>
+      <c r="S16">
+        <v>0.001588235514277984</v>
+      </c>
+      <c r="T16">
+        <v>0.001062630392057537</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>68.19636666666668</v>
+      </c>
+      <c r="H17">
+        <v>204.5891</v>
+      </c>
+      <c r="I17">
+        <v>0.4393912153916231</v>
+      </c>
+      <c r="J17">
+        <v>0.4405216511573432</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>30.47780866666666</v>
+      </c>
+      <c r="N17">
+        <v>91.433426</v>
+      </c>
+      <c r="O17">
+        <v>0.9838017987059956</v>
+      </c>
+      <c r="P17">
+        <v>0.9848051540204799</v>
+      </c>
+      <c r="Q17">
+        <v>2078.475815028511</v>
+      </c>
+      <c r="R17">
+        <v>18706.2823352566</v>
+      </c>
+      <c r="S17">
+        <v>0.4322738680378923</v>
+      </c>
+      <c r="T17">
+        <v>0.4338279925173635</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>68.19636666666668</v>
+      </c>
+      <c r="H18">
+        <v>204.5891</v>
+      </c>
+      <c r="I18">
+        <v>0.4393912153916231</v>
+      </c>
+      <c r="J18">
+        <v>0.4405216511573432</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.04441233333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.133237</v>
+      </c>
+      <c r="O18">
+        <v>0.001433598258192696</v>
+      </c>
+      <c r="P18">
+        <v>0.001435060349879339</v>
+      </c>
+      <c r="Q18">
+        <v>3.028759768522223</v>
+      </c>
+      <c r="R18">
+        <v>27.2588379167</v>
+      </c>
+      <c r="S18">
+        <v>0.0006299104810506024</v>
+      </c>
+      <c r="T18">
+        <v>0.0006321751548392812</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>68.19636666666668</v>
+      </c>
+      <c r="H19">
+        <v>204.5891</v>
+      </c>
+      <c r="I19">
+        <v>0.4393912153916231</v>
+      </c>
+      <c r="J19">
+        <v>0.4405216511573432</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.00569</v>
+      </c>
+      <c r="N19">
+        <v>0.01707</v>
+      </c>
+      <c r="O19">
+        <v>0.0001836691179428336</v>
+      </c>
+      <c r="P19">
+        <v>0.0001838564375694463</v>
+      </c>
+      <c r="Q19">
+        <v>0.3880373263333334</v>
+      </c>
+      <c r="R19">
+        <v>3.492335937</v>
+      </c>
+      <c r="S19">
+        <v>8.070259696280899E-05</v>
+      </c>
+      <c r="T19">
+        <v>8.099274145399948E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>68.19636666666668</v>
+      </c>
+      <c r="H20">
+        <v>204.5891</v>
+      </c>
+      <c r="I20">
+        <v>0.4393912153916231</v>
+      </c>
+      <c r="J20">
+        <v>0.4405216511573432</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.3570223333333333</v>
+      </c>
+      <c r="N20">
+        <v>1.071067</v>
+      </c>
+      <c r="O20">
+        <v>0.0115244247889676</v>
+      </c>
+      <c r="P20">
+        <v>0.01153617826702954</v>
+      </c>
+      <c r="Q20">
+        <v>24.34762595218889</v>
+      </c>
+      <c r="R20">
+        <v>219.1286335697</v>
+      </c>
+      <c r="S20">
+        <v>0.005063731014713823</v>
+      </c>
+      <c r="T20">
+        <v>0.005081936298237309</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>68.19636666666668</v>
+      </c>
+      <c r="H21">
+        <v>204.5891</v>
+      </c>
+      <c r="I21">
+        <v>0.4393912153916231</v>
+      </c>
+      <c r="J21">
+        <v>0.4405216511573432</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.0946895</v>
+      </c>
+      <c r="N21">
+        <v>0.189379</v>
+      </c>
+      <c r="O21">
+        <v>0.003056509128901219</v>
+      </c>
+      <c r="P21">
+        <v>0.002039750925041838</v>
+      </c>
+      <c r="Q21">
+        <v>6.457479861483334</v>
+      </c>
+      <c r="R21">
+        <v>38.74487916890001</v>
+      </c>
+      <c r="S21">
+        <v>0.001343003261003498</v>
+      </c>
+      <c r="T21">
+        <v>0.0008985544454491488</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.19484</v>
+      </c>
+      <c r="H22">
+        <v>2.38968</v>
+      </c>
+      <c r="I22">
+        <v>0.007698389598446743</v>
+      </c>
+      <c r="J22">
+        <v>0.005145463660271636</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>30.47780866666666</v>
+      </c>
+      <c r="N22">
+        <v>91.433426</v>
+      </c>
+      <c r="O22">
+        <v>0.9838017987059956</v>
+      </c>
+      <c r="P22">
+        <v>0.9848051540204799</v>
+      </c>
+      <c r="Q22">
+        <v>36.41610490728</v>
+      </c>
+      <c r="R22">
+        <v>218.49662944368</v>
+      </c>
+      <c r="S22">
+        <v>0.007573689534091433</v>
+      </c>
+      <c r="T22">
+        <v>0.005067279132460591</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.19484</v>
+      </c>
+      <c r="H23">
+        <v>2.38968</v>
+      </c>
+      <c r="I23">
+        <v>0.007698389598446743</v>
+      </c>
+      <c r="J23">
+        <v>0.005145463660271636</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.04441233333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.133237</v>
+      </c>
+      <c r="O23">
+        <v>0.001433598258192696</v>
+      </c>
+      <c r="P23">
+        <v>0.001435060349879339</v>
+      </c>
+      <c r="Q23">
+        <v>0.05306563236</v>
+      </c>
+      <c r="R23">
+        <v>0.31839379416</v>
+      </c>
+      <c r="S23">
+        <v>1.103639791922202E-05</v>
+      </c>
+      <c r="T23">
+        <v>7.384050880600839E-06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.19484</v>
+      </c>
+      <c r="H24">
+        <v>2.38968</v>
+      </c>
+      <c r="I24">
+        <v>0.007698389598446743</v>
+      </c>
+      <c r="J24">
+        <v>0.005145463660271636</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.00569</v>
+      </c>
+      <c r="N24">
+        <v>0.01707</v>
+      </c>
+      <c r="O24">
+        <v>0.0001836691179428336</v>
+      </c>
+      <c r="P24">
+        <v>0.0001838564375694463</v>
+      </c>
+      <c r="Q24">
+        <v>0.006798639600000001</v>
+      </c>
+      <c r="R24">
+        <v>0.0407918376</v>
+      </c>
+      <c r="S24">
+        <v>1.413956427126998E-06</v>
+      </c>
+      <c r="T24">
+        <v>9.460266182205868E-07</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.19484</v>
+      </c>
+      <c r="H25">
+        <v>2.38968</v>
+      </c>
+      <c r="I25">
+        <v>0.007698389598446743</v>
+      </c>
+      <c r="J25">
+        <v>0.005145463660271636</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.3570223333333333</v>
+      </c>
+      <c r="N25">
+        <v>1.071067</v>
+      </c>
+      <c r="O25">
+        <v>0.0115244247889676</v>
+      </c>
+      <c r="P25">
+        <v>0.01153617826702954</v>
+      </c>
+      <c r="Q25">
+        <v>0.4265845647600001</v>
+      </c>
+      <c r="R25">
+        <v>2.55950738856</v>
+      </c>
+      <c r="S25">
+        <v>8.871951192346998E-05</v>
+      </c>
+      <c r="T25">
+        <v>5.93589860514159E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.19484</v>
+      </c>
+      <c r="H26">
+        <v>2.38968</v>
+      </c>
+      <c r="I26">
+        <v>0.007698389598446743</v>
+      </c>
+      <c r="J26">
+        <v>0.005145463660271636</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.0946895</v>
+      </c>
+      <c r="N26">
+        <v>0.189379</v>
+      </c>
+      <c r="O26">
+        <v>0.003056509128901219</v>
+      </c>
+      <c r="P26">
+        <v>0.002039750925041838</v>
+      </c>
+      <c r="Q26">
+        <v>0.11313880218</v>
+      </c>
+      <c r="R26">
+        <v>0.45255520872</v>
+      </c>
+      <c r="S26">
+        <v>2.353019808549066E-05</v>
+      </c>
+      <c r="T26">
+        <v>1.049546426080823E-05</v>
       </c>
     </row>
   </sheetData>
